--- a/results/I3_N5_M2_T45_C150_DepCentral_s4_P6_res.xlsx
+++ b/results/I3_N5_M2_T45_C150_DepCentral_s4_P6_res.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>856.1618841340307</v>
+        <v>448.8875996205745</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.0150001049041748</v>
+        <v>0.005000114440917969</v>
       </c>
     </row>
     <row r="5">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>23.42188413403032</v>
+        <v>28.88759962057447</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6.79395499765874</v>
+        <v>5.764833041814827</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6.79395499765874</v>
+        <v>5.764833041814827</v>
       </c>
     </row>
     <row r="9">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>311.3800000000003</v>
+        <v>182</v>
       </c>
     </row>
     <row r="10">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>521.36</v>
+        <v>238</v>
       </c>
     </row>
   </sheetData>
@@ -557,7 +557,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -634,17 +634,6 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="n">
-        <v>1</v>
-      </c>
-      <c r="C7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -711,7 +700,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -733,7 +722,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -802,7 +791,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -813,7 +802,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -824,7 +813,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -835,7 +824,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -918,7 +907,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4">
@@ -926,7 +915,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5">
@@ -934,7 +923,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>6.89753188710425</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6">
@@ -942,7 +931,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>9.332814211599711</v>
+        <v>18.71927412272879</v>
       </c>
     </row>
     <row r="7">
@@ -950,7 +939,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>32.46902814888774</v>
+        <v>36.65075183719856</v>
       </c>
     </row>
     <row r="8">
@@ -958,7 +947,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>39.8160670982627</v>
+        <v>41.10005889649603</v>
       </c>
     </row>
     <row r="9">
@@ -966,7 +955,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>37.6146379281073</v>
+        <v>41.79636161641812</v>
       </c>
     </row>
   </sheetData>
@@ -980,7 +969,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1077,20 +1066,6 @@
         <v>5</v>
       </c>
       <c r="D6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="n">
-        <v>7</v>
-      </c>
-      <c r="C7" t="n">
-        <v>1</v>
-      </c>
-      <c r="D7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1193,7 +1168,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>107.9950000000001</v>
+        <v>56</v>
       </c>
     </row>
     <row r="8">
@@ -1204,7 +1179,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>105.5100000000001</v>
+        <v>62</v>
       </c>
     </row>
     <row r="9">
@@ -1215,7 +1190,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>104.6650000000001</v>
+        <v>56</v>
       </c>
     </row>
     <row r="10">
@@ -1226,7 +1201,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>104.5050000000001</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11">
@@ -1237,7 +1212,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>96.60500000000008</v>
+        <v>56</v>
       </c>
     </row>
     <row r="12">
@@ -1248,7 +1223,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>156.6</v>
+        <v>172</v>
       </c>
     </row>
     <row r="13">
@@ -1259,7 +1234,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>162.55</v>
+        <v>171</v>
       </c>
     </row>
     <row r="14">
@@ -1270,7 +1245,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>163.885</v>
+        <v>159</v>
       </c>
     </row>
     <row r="15">
@@ -1281,7 +1256,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>164.0050000000007</v>
+        <v>176</v>
       </c>
     </row>
     <row r="16">
@@ -1292,7 +1267,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>153.1050000000006</v>
+        <v>163</v>
       </c>
     </row>
     <row r="17">
@@ -1303,7 +1278,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>48.07000000000073</v>
+        <v>62</v>
       </c>
     </row>
     <row r="18">
@@ -1314,7 +1289,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>46.66000000000073</v>
+        <v>62</v>
       </c>
     </row>
     <row r="19">
@@ -1325,7 +1300,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>49.43500000000073</v>
+        <v>56</v>
       </c>
     </row>
     <row r="20">
@@ -1336,7 +1311,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>46.91500000000073</v>
+        <v>50</v>
       </c>
     </row>
     <row r="21">
@@ -1347,7 +1322,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>42.86500000000073</v>
+        <v>55</v>
       </c>
     </row>
     <row r="22">
@@ -1358,7 +1333,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>94.7</v>
+        <v>115</v>
       </c>
     </row>
     <row r="23">
@@ -1369,7 +1344,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>95.46000000000001</v>
+        <v>123</v>
       </c>
     </row>
     <row r="24">
@@ -1380,7 +1355,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>96.13500000000001</v>
+        <v>108</v>
       </c>
     </row>
     <row r="25">
@@ -1391,7 +1366,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>97.91500000000001</v>
+        <v>117</v>
       </c>
     </row>
     <row r="26">
@@ -1402,7 +1377,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>90.295</v>
+        <v>114</v>
       </c>
     </row>
     <row r="27">
@@ -1413,7 +1388,7 @@
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>170.4799999999998</v>
+        <v>110</v>
       </c>
     </row>
     <row r="28">
@@ -1424,7 +1399,7 @@
         <v>2</v>
       </c>
       <c r="C28" t="n">
-        <v>173.2749999999998</v>
+        <v>113</v>
       </c>
     </row>
     <row r="29">
@@ -1435,7 +1410,7 @@
         <v>3</v>
       </c>
       <c r="C29" t="n">
-        <v>175.1699999999998</v>
+        <v>123</v>
       </c>
     </row>
     <row r="30">
@@ -1446,7 +1421,7 @@
         <v>4</v>
       </c>
       <c r="C30" t="n">
-        <v>173.5649999999998</v>
+        <v>112</v>
       </c>
     </row>
     <row r="31">
@@ -1457,7 +1432,7 @@
         <v>5</v>
       </c>
       <c r="C31" t="n">
-        <v>163.0549999999998</v>
+        <v>119</v>
       </c>
     </row>
     <row r="32">
@@ -1468,7 +1443,7 @@
         <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>156.6</v>
+        <v>172</v>
       </c>
     </row>
     <row r="33">
@@ -1479,7 +1454,7 @@
         <v>2</v>
       </c>
       <c r="C33" t="n">
-        <v>162.55</v>
+        <v>171</v>
       </c>
     </row>
     <row r="34">
@@ -1490,7 +1465,7 @@
         <v>3</v>
       </c>
       <c r="C34" t="n">
-        <v>163.885</v>
+        <v>159</v>
       </c>
     </row>
     <row r="35">
@@ -1501,7 +1476,7 @@
         <v>4</v>
       </c>
       <c r="C35" t="n">
-        <v>164.0050000000007</v>
+        <v>176</v>
       </c>
     </row>
     <row r="36">
@@ -1512,7 +1487,7 @@
         <v>5</v>
       </c>
       <c r="C36" t="n">
-        <v>153.1050000000006</v>
+        <v>163</v>
       </c>
     </row>
     <row r="37">
@@ -1523,7 +1498,7 @@
         <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>170.4799999999998</v>
+        <v>110</v>
       </c>
     </row>
     <row r="38">
@@ -1534,7 +1509,7 @@
         <v>2</v>
       </c>
       <c r="C38" t="n">
-        <v>173.2749999999998</v>
+        <v>113</v>
       </c>
     </row>
     <row r="39">
@@ -1545,7 +1520,7 @@
         <v>3</v>
       </c>
       <c r="C39" t="n">
-        <v>175.1699999999998</v>
+        <v>123</v>
       </c>
     </row>
     <row r="40">
@@ -1556,7 +1531,7 @@
         <v>4</v>
       </c>
       <c r="C40" t="n">
-        <v>173.5649999999998</v>
+        <v>112</v>
       </c>
     </row>
     <row r="41">
@@ -1567,7 +1542,7 @@
         <v>5</v>
       </c>
       <c r="C41" t="n">
-        <v>163.0549999999998</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>
@@ -1614,7 +1589,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>6.6</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3">
@@ -1625,7 +1600,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>12.55</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4">
@@ -1636,7 +1611,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>13.88499999999999</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -1647,7 +1622,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>14.00500000000068</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6">
@@ -1658,7 +1633,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>3.105000000000643</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7">
@@ -1669,7 +1644,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>20.47999999999978</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1680,7 +1655,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>23.27499999999978</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1691,7 +1666,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>25.16999999999978</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1702,7 +1677,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>23.56499999999978</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1713,7 +1688,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>13.05499999999976</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1760,7 +1735,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -1771,7 +1746,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -1782,7 +1757,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -1793,7 +1768,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6">
@@ -1804,7 +1779,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7">
@@ -1815,7 +1790,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>18.61</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8">
@@ -1826,7 +1801,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>15.88</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9">
@@ -1837,7 +1812,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>26.885</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10">
@@ -1848,7 +1823,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>27.385</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11">
@@ -1859,7 +1834,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>22.46</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12">
@@ -1870,7 +1845,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>7.925000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1881,7 +1856,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>11.74</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1892,7 +1867,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>7.57</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1903,7 +1878,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>6.945</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -1914,7 +1889,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>13.115</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1925,7 +1900,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>15.845</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18">
@@ -1936,7 +1911,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>21.515</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19">
@@ -1947,7 +1922,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>15.96</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20">
@@ -1958,7 +1933,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>22.21</v>
+        <v>9</v>
       </c>
     </row>
     <row r="21">
@@ -1969,7 +1944,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>26.635</v>
+        <v>8</v>
       </c>
     </row>
     <row r="22">
@@ -2038,7 +2013,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2118,61 +2093,6 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="n">
-        <v>1</v>
-      </c>
-      <c r="C7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>5</v>
-      </c>
-      <c r="B8" t="n">
-        <v>2</v>
-      </c>
-      <c r="C8" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>5</v>
-      </c>
-      <c r="B9" t="n">
-        <v>3</v>
-      </c>
-      <c r="C9" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>5</v>
-      </c>
-      <c r="B10" t="n">
-        <v>4</v>
-      </c>
-      <c r="C10" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>5</v>
-      </c>
-      <c r="B11" t="n">
-        <v>5</v>
-      </c>
-      <c r="C11" t="n">
-        <v>1</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
